--- a/src/test/java/org/maven/todomvc/DataDrivenTesting/TestData.xlsx
+++ b/src/test/java/org/maven/todomvc/DataDrivenTesting/TestData.xlsx
@@ -16,21 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Hello</t>
   </si>
   <si>
     <t>PriyaRanjan</t>
-  </si>
-  <si>
-    <t>Welcome</t>
-  </si>
-  <si>
-    <t xml:space="preserve">To </t>
-  </si>
-  <si>
-    <t>Knolscape</t>
   </si>
 </sst>
 </file>
@@ -362,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -383,21 +374,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
